--- a/data/timetable/timetable.xlsx
+++ b/data/timetable/timetable.xlsx
@@ -1804,8 +1804,8 @@
       <c r="J9" s="18"/>
       <c r="K9" s="16"/>
       <c r="L9" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Алгоритмы и структуры данных Кислов К.А.  в 1307(24.05 в ms teaqms)")</f>
-        <v>Алгоритмы и структуры данных Кислов К.А.  в 1307(24.05 в ms teaqms)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Алгоритмы и структуры данных Кислов К.А.  в 1307")</f>
+        <v>Алгоритмы и структуры данных Кислов К.А.  в 1307</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -1910,8 +1910,8 @@
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Алгебра и геометрия  Лаврентьева Е.Е. в 1509 (17.05 перенос на 5.05 в 109)")</f>
-        <v>Алгебра и геометрия  Лаврентьева Е.Е. в 1509 (17.05 перенос на 5.05 в 109)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Алгебра и геометрия  Лаврентьева Е.Е. в 1509 ")</f>
+        <v>Алгебра и геометрия  Лаврентьева Е.Е. в 1509 </v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -4946,8 +4946,8 @@
         <v>11:50 - 13:20</v>
       </c>
       <c r="C11" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основы разработки информационных систем Ференец А.А. в 1308 ( 24.05 в ms teams)")</f>
-        <v>Основы разработки информационных систем Ференец А.А. в 1308 ( 24.05 в ms teams)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основы разработки информационных систем Ференец А.А. в 1308 ")</f>
+        <v>Основы разработки информационных систем Ференец А.А. в 1308 </v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
@@ -4999,13 +4999,13 @@
       <c r="C13" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дисциплины по выбору: 
 Разработка корпоративных приложений Сидиков М.Р. гр.1 MS Teams, Аршинов М.В. гр.1 в 1307, 
-Веб-программирование Абрамский М.М.(Атнагулов А.А.)(24.05 в MS teams) гр1 в 1509, Курносов О.В. в 1302, Кошарский И.Е.в 1508, 
-Введение в тре"&amp;"хмерную графику Костюк Д.И. гр.1 в 1304, Хафизов М.Р. в 1311 , 
+Веб-программирование Абрамский М.М.(Атнагулов А.А.) гр1 в 1509, Курносов О.В. в 1302, Кошарский И.Е.в 1508, 
+Введение в трехмерную графику Ко"&amp;"стюк Д.И. гр.1 в 1304, Хафизов М.Р. в 1311 , 
 Программирование на С++ Закиев А. в ms teams , Чупин М.М. в 1309 
 Разработка мобильных приложений Шайхразиев Н. в 1308, Ихсанов И.Р. в 1412  ")</f>
         <v>Дисциплины по выбору: 
 Разработка корпоративных приложений Сидиков М.Р. гр.1 MS Teams, Аршинов М.В. гр.1 в 1307, 
-Веб-программирование Абрамский М.М.(Атнагулов А.А.)(24.05 в MS teams) гр1 в 1509, Курносов О.В. в 1302, Кошарский И.Е.в 1508, 
+Веб-программирование Абрамский М.М.(Атнагулов А.А.) гр1 в 1509, Курносов О.В. в 1302, Кошарский И.Е.в 1508, 
 Введение в трехмерную графику Костюк Д.И. гр.1 в 1304, Хафизов М.Р. в 1311 , 
 Программирование на С++ Закиев А. в ms teams , Чупин М.М. в 1309 
 Разработка мобильных приложений Шайхразиев Н. в 1308, Ихсанов И.Р. в 1412  </v>
@@ -5248,8 +5248,8 @@
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основы разработки информационных систем Еникеев К.Ш.в 1412 (6.04 в ms teams) ( 27.04 переносится на 27.04 в 8.30 в ауд 1302)")</f>
-        <v>Основы разработки информационных систем Еникеев К.Ш.в 1412 (6.04 в ms teams) ( 27.04 переносится на 27.04 в 8.30 в ауд 1302)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основы разработки информационных систем Еникеев К.Ш.в 1412 ")</f>
+        <v>Основы разработки информационных систем Еникеев К.Ш.в 1412 </v>
       </c>
     </row>
     <row r="20" ht="52.5" customHeight="1">
@@ -5469,11 +5469,11 @@
       </c>
       <c r="C27" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дисциплины по выбору: , 
-Введение в искусственный интеллект - Таланов М.О.(в ms teams). в 1311, Григорян К.А. гр.1 в н.н., гр.2 в ч.н. в 1306.,(  26.05 в ms teams) 
+Введение в искусственный интеллект - Таланов М.О.(в ms teams). в 1311, Григорян К.А. гр.1 в н.н., гр.2 в ч.н. в 1306., 
 Введение в робототехнику - Лавренов Р.О.гр.1 по н.н., гр.2 по ч.н. в 1404
-Введение в машин"&amp;"ное обучение - Закиров Л.Л. в 1303 ")</f>
+Введение в машинное обучение - Закир"&amp;"ов Л.Л. в 1303 ")</f>
         <v>Дисциплины по выбору: , 
-Введение в искусственный интеллект - Таланов М.О.(в ms teams). в 1311, Григорян К.А. гр.1 в н.н., гр.2 в ч.н. в 1306.,(  26.05 в ms teams) 
+Введение в искусственный интеллект - Таланов М.О.(в ms teams). в 1311, Григорян К.А. гр.1 в н.н., гр.2 в ч.н. в 1306., 
 Введение в робототехнику - Лавренов Р.О.гр.1 по н.н., гр.2 по ч.н. в 1404
 Введение в машинное обучение - Закиров Л.Л. в 1303 </v>
       </c>
@@ -5498,12 +5498,12 @@
       </c>
       <c r="C28" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дисциплины по выбору: 
-Дополнительные главы прикладной математики - Лернер Э.Ю. лекция. в 1301, 
-Введение в искусственный интеллект - Таланов М.О. гр.1 в н.н., а гр.2 в ч.н.в 1409, Хафизов М.Р. гр.3 в н.н в 1405 ,Григорян К.А. гр.3 в 1306. по н.н.
-Введени"&amp;"е в робототехнику - Лавренов Р.О. (лекция) в 1311  
+Дополнительные главы прикладной математики - Лернер Э.Ю. лекция. в 1301(2.06 перенос на 1.06 в 15.40 в 1404) 
+Введение в искусственный интеллект - Таланов М.О. гр.1 в н.н., а гр.2 в ч.н.в 1409, Хафизов М.Р. гр.3 в н.н в 1405 ,Григор"&amp;"ян К.А. гр.3 в 1306. по н.н.
+Введение в робототехнику - Лавренов Р.О. (лекция) в 1311  
 Введение в машинное обучение - Закиров Л.Л. в 1303 по ч.н. ")</f>
         <v>Дисциплины по выбору: 
-Дополнительные главы прикладной математики - Лернер Э.Ю. лекция. в 1301, 
+Дополнительные главы прикладной математики - Лернер Э.Ю. лекция. в 1301(2.06 перенос на 1.06 в 15.40 в 1404) 
 Введение в искусственный интеллект - Таланов М.О. гр.1 в н.н., а гр.2 в ч.н.в 1409, Хафизов М.Р. гр.3 в н.н в 1405 ,Григорян К.А. гр.3 в 1306. по н.н.
 Введение в робототехнику - Лавренов Р.О. (лекция) в 1311  
 Введение в машинное обучение - Закиров Л.Л. в 1303 по ч.н. </v>
@@ -6422,8 +6422,8 @@
         <v>Архитектура систем Ибатулин Н.Н. в 1404 </v>
       </c>
       <c r="G16" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура систем Лукьяничева Е.О.в 1305 (25.05 переносится на 26.05 в 8.30 в 1409)")</f>
-        <v>Архитектура систем Лукьяничева Е.О.в 1305 (25.05 переносится на 26.05 в 8.30 в 1409)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура систем Лукьяничева Е.О.в 1305 ")</f>
+        <v>Архитектура систем Лукьяничева Е.О.в 1305 </v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="18"/>
@@ -9214,8 +9214,8 @@
         <v>Архитектура систем Ибатулин Н.Н. в 1404 </v>
       </c>
       <c r="H16" s="21" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура систем Лукьяничева Е.О.в 1305 (25.05 переносится на 26.05 в 8.30 в 1409)")</f>
-        <v>Архитектура систем Лукьяничева Е.О.в 1305 (25.05 переносится на 26.05 в 8.30 в 1409)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архитектура систем Лукьяничева Е.О.в 1305 ")</f>
+        <v>Архитектура систем Лукьяничева Е.О.в 1305 </v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -9362,8 +9362,8 @@
         <v>14:00 - 15:30</v>
       </c>
       <c r="C19" s="21" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основы разработки информационных систем Еникеев К.Ш.в 1412 (6.04 в ms teams) ( 27.04 переносится на 27.04 в 8.30 в ауд 1302)")</f>
-        <v>Основы разработки информационных систем Еникеев К.Ш.в 1412 (6.04 в ms teams) ( 27.04 переносится на 27.04 в 8.30 в ауд 1302)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основы разработки информационных систем Еникеев К.Ш.в 1412 ")</f>
+        <v>Основы разработки информационных систем Еникеев К.Ш.в 1412 </v>
       </c>
       <c r="D19" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Элективные курсы по физической культуре и спорту в УНИКС с 14:00 - 15:30 ")</f>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="G1" s="72">
         <f> TODAY()</f>
-        <v>44705</v>
+        <v>44709</v>
       </c>
       <c r="H1" s="73"/>
       <c r="I1" s="73"/>
@@ -11048,7 +11048,7 @@
       </c>
       <c r="G7" s="73" t="str">
         <f> TEXT(WEEKDAY(G1), "dddd")</f>
-        <v>вторник</v>
+        <v>суббота</v>
       </c>
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
